--- a/code/Frankenschock-Youdrawit/data/snb-data-devkum-de-selection-20170802_1430.xlsx
+++ b/code/Frankenschock-Youdrawit/data/snb-data-devkum-de-selection-20170802_1430.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">EURCHF</t>
+    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">2010-01</t>
@@ -764,7 +764,7 @@
   <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
